--- a/PictureShift.com MockUps/tesseract-supported-languages.xlsx
+++ b/PictureShift.com MockUps/tesseract-supported-languages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin.scaringi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin.scaringi\Documents\PictureShift.com\PictureShift.com MockUps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8EC72AE-C42A-4B6B-8333-E18FFE5BEE84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B78445-C12C-467B-AE52-7259944E3811}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03FD4169-636D-4FE1-BC60-AA48B9794488}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03FD4169-636D-4FE1-BC60-AA48B9794488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="312">
   <si>
     <t>afr</t>
   </si>
@@ -69,15 +69,9 @@
     <t>cat</t>
   </si>
   <si>
-    <t>ceb</t>
-  </si>
-  <si>
     <t>ces</t>
   </si>
   <si>
-    <t>chr</t>
-  </si>
-  <si>
     <t>cos</t>
   </si>
   <si>
@@ -102,15 +96,9 @@
     <t>eng</t>
   </si>
   <si>
-    <t>enm</t>
-  </si>
-  <si>
     <t>epo</t>
   </si>
   <si>
-    <t>equ</t>
-  </si>
-  <si>
     <t>est</t>
   </si>
   <si>
@@ -123,21 +111,12 @@
     <t>fas</t>
   </si>
   <si>
-    <t>fil</t>
-  </si>
-  <si>
     <t>fin</t>
   </si>
   <si>
     <t>fra</t>
   </si>
   <si>
-    <t>frk</t>
-  </si>
-  <si>
-    <t>frm</t>
-  </si>
-  <si>
     <t>fry</t>
   </si>
   <si>
@@ -150,9 +129,6 @@
     <t>glg</t>
   </si>
   <si>
-    <t>grc</t>
-  </si>
-  <si>
     <t>guj</t>
   </si>
   <si>
@@ -207,9 +183,6 @@
     <t>kir</t>
   </si>
   <si>
-    <t>kmr</t>
-  </si>
-  <si>
     <t>kor</t>
   </si>
   <si>
@@ -267,15 +240,9 @@
     <t>ori</t>
   </si>
   <si>
-    <t>osd</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>pdf</t>
-  </si>
-  <si>
     <t>pol</t>
   </si>
   <si>
@@ -327,9 +294,6 @@
     <t>swe</t>
   </si>
   <si>
-    <t>syr</t>
-  </si>
-  <si>
     <t>tam</t>
   </si>
   <si>
@@ -685,6 +649,324 @@
   </si>
   <si>
     <t>Yoruba</t>
+  </si>
+  <si>
+    <t>&lt;option value="</t>
+  </si>
+  <si>
+    <t>"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="afr"&gt;Afrikaans&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="sqi"&gt;Albanian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="amh"&gt;Amharic&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ara"&gt;Arabic&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="hye"&gt;Armenian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="asm"&gt;Assamese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="aze"&gt;Azerbaijani&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="eus"&gt;Basque&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="bel"&gt;Belarusian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ben"&gt;Bengali&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="bos"&gt;Bosnian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="bre"&gt;Breton&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="bul"&gt;Bulgarian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="mya"&gt;Burmese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="cat"&gt;Catalan&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="cos"&gt;Corsican&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="hrv"&gt;Croatian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ces"&gt;Czech&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="dan"&gt;Danish&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="div"&gt;Divehi; Dhivehi; Maldivian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="nld"&gt;Dutch&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="dzo"&gt;Dzongkha&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="eng"&gt;English&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="epo"&gt;Esperanto&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="est"&gt;Estonian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="fao"&gt;Faroese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="fin"&gt;Finnish&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="fra"&gt;French&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="gla"&gt;Gaelic; Scottish Gaelic&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="glg"&gt;Galician&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="kat"&gt;Georgian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="deu"&gt;German&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ell"&gt;Greek, Modern (1453-)&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="guj"&gt;Gujarati&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="hat"&gt;Haitian; Haitian Creole&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="heb"&gt;Hebrew&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="hin"&gt;Hindi&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="hun"&gt;Hungarian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="isl"&gt;Icelandic&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ind"&gt;Indonesian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="iku"&gt;Inuktitut&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="gle"&gt;Irish&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ita"&gt;Italian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="jpn"&gt;Japanese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="jav"&gt;Javanese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="kan"&gt;Kannada&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="kaz"&gt;Kazakh&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="khm"&gt;Khmer&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="kir"&gt;Kirghiz&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="kor"&gt;Korean&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="lao"&gt;Lao&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="lat"&gt;Latin&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="lav"&gt;Latvian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="lit"&gt;Lithuanian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ltz"&gt;Luxembourgish; Letzeburgesch&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="mkd"&gt;Macedonian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="msa"&gt;Malay&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="mal"&gt;Malayalam&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="mlt"&gt;Maltese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="mri"&gt;Maori&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="mar"&gt;Marathi&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="mon"&gt;Mongolian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="nep"&gt;Nepali&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="nor"&gt;Norwegian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="oci"&gt;Occitan (post 1500); Provencal&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ori"&gt;Oriya&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="pan"&gt;Panjabi&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="fas"&gt;Persian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="pol"&gt;Polish&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="por"&gt;Portuguese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="pus"&gt;Pushto&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="que"&gt;Quechua&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ron"&gt;Romanian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="rus"&gt;Russian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="san"&gt;Sanskrit&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="srp"&gt;Serbian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="snd"&gt;Sindhi&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="sin"&gt;Sinhala; Sinhalese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="slk"&gt;Slovak&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="slv"&gt;Slovenian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="spa"&gt;Spanish; Castilian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="sun"&gt;Sundanese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="swa"&gt;Swahili&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="swe"&gt;Swedish&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="tgl"&gt;Tagalog&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="tgk"&gt;Tajik&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="tam"&gt;Tamil&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="tat"&gt;Tatar&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="tel"&gt;Telugu&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="tha"&gt;Thai&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="bod"&gt;Tibetan&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="tir"&gt;Tigrinya&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ton"&gt;Tonga (Tonga Islands)&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="tur"&gt;Turkish&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="uig"&gt;Uighur&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="ukr"&gt;Ukrainian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="urd"&gt;Urdu&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="uzb"&gt;Uzbek&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="vie"&gt;Vietnamese&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="cym"&gt;Welsh&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="fry"&gt;Western Frisian&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="yid"&gt;Yiddish&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="yor"&gt;Yoruba&lt;/option&gt;</t>
   </si>
 </sst>
 </file>
@@ -1036,935 +1318,2496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C0673A-76D0-4486-8652-B59C008FE811}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="str">
+        <f>C1&amp;A1&amp;D1&amp;B1&amp;E1</f>
+        <v>&lt;option value="afr"&gt;Afrikaans&lt;/option&gt;</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F65" si="0">C2&amp;A2&amp;D2&amp;B2&amp;E2</f>
+        <v>&lt;option value="sqi"&gt;Albanian&lt;/option&gt;</v>
+      </c>
+      <c r="G2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="amh"&gt;Amharic&lt;/option&gt;</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="ara"&gt;Arabic&lt;/option&gt;</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="hye"&gt;Armenian&lt;/option&gt;</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="asm"&gt;Assamese&lt;/option&gt;</v>
+      </c>
+      <c r="G6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="aze"&gt;Azerbaijani&lt;/option&gt;</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="eus"&gt;Basque&lt;/option&gt;</v>
+      </c>
+      <c r="G8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="bel"&gt;Belarusian&lt;/option&gt;</v>
+      </c>
+      <c r="G9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="ben"&gt;Bengali&lt;/option&gt;</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="bos"&gt;Bosnian&lt;/option&gt;</v>
+      </c>
+      <c r="G11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="bre"&gt;Breton&lt;/option&gt;</v>
+      </c>
+      <c r="G12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="bul"&gt;Bulgarian&lt;/option&gt;</v>
+      </c>
+      <c r="G13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="mya"&gt;Burmese&lt;/option&gt;</v>
+      </c>
+      <c r="G14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="cat"&gt;Catalan&lt;/option&gt;</v>
+      </c>
+      <c r="G15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="cos"&gt;Corsican&lt;/option&gt;</v>
+      </c>
+      <c r="G16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="hrv"&gt;Croatian&lt;/option&gt;</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="ces"&gt;Czech&lt;/option&gt;</v>
+      </c>
+      <c r="G18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="dan"&gt;Danish&lt;/option&gt;</v>
+      </c>
+      <c r="G19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="div"&gt;Divehi; Dhivehi; Maldivian&lt;/option&gt;</v>
+      </c>
+      <c r="G20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="nld"&gt;Dutch&lt;/option&gt;</v>
+      </c>
+      <c r="G21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="dzo"&gt;Dzongkha&lt;/option&gt;</v>
+      </c>
+      <c r="G22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="eng"&gt;English&lt;/option&gt;</v>
+      </c>
+      <c r="G23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="epo"&gt;Esperanto&lt;/option&gt;</v>
+      </c>
+      <c r="G24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="est"&gt;Estonian&lt;/option&gt;</v>
+      </c>
+      <c r="G25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="fao"&gt;Faroese&lt;/option&gt;</v>
+      </c>
+      <c r="G26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="fin"&gt;Finnish&lt;/option&gt;</v>
+      </c>
+      <c r="G27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="fra"&gt;French&lt;/option&gt;</v>
+      </c>
+      <c r="G28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="gla"&gt;Gaelic; Scottish Gaelic&lt;/option&gt;</v>
+      </c>
+      <c r="G29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="glg"&gt;Galician&lt;/option&gt;</v>
+      </c>
+      <c r="G30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="kat"&gt;Georgian&lt;/option&gt;</v>
+      </c>
+      <c r="G31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="deu"&gt;German&lt;/option&gt;</v>
+      </c>
+      <c r="G32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="ell"&gt;Greek, Modern (1453-)&lt;/option&gt;</v>
+      </c>
+      <c r="G33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="guj"&gt;Gujarati&lt;/option&gt;</v>
+      </c>
+      <c r="G34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="hat"&gt;Haitian; Haitian Creole&lt;/option&gt;</v>
+      </c>
+      <c r="G35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="heb"&gt;Hebrew&lt;/option&gt;</v>
+      </c>
+      <c r="G36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
       <c r="B37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="hin"&gt;Hindi&lt;/option&gt;</v>
+      </c>
+      <c r="G37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="hun"&gt;Hungarian&lt;/option&gt;</v>
+      </c>
+      <c r="G38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="isl"&gt;Icelandic&lt;/option&gt;</v>
+      </c>
+      <c r="G39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="ind"&gt;Indonesian&lt;/option&gt;</v>
+      </c>
+      <c r="G40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="iku"&gt;Inuktitut&lt;/option&gt;</v>
+      </c>
+      <c r="G41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="gle"&gt;Irish&lt;/option&gt;</v>
+      </c>
+      <c r="G42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="ita"&gt;Italian&lt;/option&gt;</v>
+      </c>
+      <c r="G43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="jpn"&gt;Japanese&lt;/option&gt;</v>
+      </c>
+      <c r="G44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
       <c r="B45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="jav"&gt;Javanese&lt;/option&gt;</v>
+      </c>
+      <c r="G45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="kan"&gt;Kannada&lt;/option&gt;</v>
+      </c>
+      <c r="G46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="kaz"&gt;Kazakh&lt;/option&gt;</v>
+      </c>
+      <c r="G47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="khm"&gt;Khmer&lt;/option&gt;</v>
+      </c>
+      <c r="G48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="kir"&gt;Kirghiz&lt;/option&gt;</v>
+      </c>
+      <c r="G49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="kor"&gt;Korean&lt;/option&gt;</v>
+      </c>
+      <c r="G50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="lao"&gt;Lao&lt;/option&gt;</v>
+      </c>
+      <c r="G51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="lat"&gt;Latin&lt;/option&gt;</v>
+      </c>
+      <c r="G52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="lav"&gt;Latvian&lt;/option&gt;</v>
+      </c>
+      <c r="G53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="lit"&gt;Lithuanian&lt;/option&gt;</v>
+      </c>
+      <c r="G54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="ltz"&gt;Luxembourgish; Letzeburgesch&lt;/option&gt;</v>
+      </c>
+      <c r="G55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="mkd"&gt;Macedonian&lt;/option&gt;</v>
+      </c>
+      <c r="G56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="msa"&gt;Malay&lt;/option&gt;</v>
+      </c>
+      <c r="G57" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="mal"&gt;Malayalam&lt;/option&gt;</v>
+      </c>
+      <c r="G58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="mlt"&gt;Maltese&lt;/option&gt;</v>
+      </c>
+      <c r="G59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="mri"&gt;Maori&lt;/option&gt;</v>
+      </c>
+      <c r="G60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C61" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" t="s">
+        <v>208</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="mar"&gt;Marathi&lt;/option&gt;</v>
+      </c>
+      <c r="G61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="mon"&gt;Mongolian&lt;/option&gt;</v>
+      </c>
+      <c r="G62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C63" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" t="s">
+        <v>208</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="nep"&gt;Nepali&lt;/option&gt;</v>
+      </c>
+      <c r="G63" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="nor"&gt;Norwegian&lt;/option&gt;</v>
+      </c>
+      <c r="G64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="oci"&gt;Occitan (post 1500); Provencal&lt;/option&gt;</v>
+      </c>
+      <c r="G65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" ref="F66:F103" si="1">C66&amp;A66&amp;D66&amp;B66&amp;E66</f>
+        <v>&lt;option value="ori"&gt;Oriya&lt;/option&gt;</v>
+      </c>
+      <c r="G66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="pan"&gt;Panjabi&lt;/option&gt;</v>
+      </c>
+      <c r="G67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="fas"&gt;Persian&lt;/option&gt;</v>
+      </c>
+      <c r="G68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="pol"&gt;Polish&lt;/option&gt;</v>
+      </c>
+      <c r="G69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" t="s">
+        <v>208</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="por"&gt;Portuguese&lt;/option&gt;</v>
+      </c>
+      <c r="G70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C71" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="pus"&gt;Pushto&lt;/option&gt;</v>
+      </c>
+      <c r="G71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="que"&gt;Quechua&lt;/option&gt;</v>
+      </c>
+      <c r="G72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="ron"&gt;Romanian&lt;/option&gt;</v>
+      </c>
+      <c r="G73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="rus"&gt;Russian&lt;/option&gt;</v>
+      </c>
+      <c r="G74" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" t="s">
+        <v>207</v>
+      </c>
+      <c r="E75" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="san"&gt;Sanskrit&lt;/option&gt;</v>
+      </c>
+      <c r="G75" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="srp"&gt;Serbian&lt;/option&gt;</v>
+      </c>
+      <c r="G76" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" t="s">
+        <v>208</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="snd"&gt;Sindhi&lt;/option&gt;</v>
+      </c>
+      <c r="G77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="sin"&gt;Sinhala; Sinhalese&lt;/option&gt;</v>
+      </c>
+      <c r="G78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="slk"&gt;Slovak&lt;/option&gt;</v>
+      </c>
+      <c r="G79" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="slv"&gt;Slovenian&lt;/option&gt;</v>
+      </c>
+      <c r="G80" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" t="s">
+        <v>207</v>
+      </c>
+      <c r="E81" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="spa"&gt;Spanish; Castilian&lt;/option&gt;</v>
+      </c>
+      <c r="G81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="sun"&gt;Sundanese&lt;/option&gt;</v>
+      </c>
+      <c r="G82" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="C83" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="swa"&gt;Swahili&lt;/option&gt;</v>
+      </c>
+      <c r="G83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="C84" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84" t="s">
+        <v>208</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="swe"&gt;Swedish&lt;/option&gt;</v>
+      </c>
+      <c r="G84" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="C85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" t="s">
+        <v>208</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="tgl"&gt;Tagalog&lt;/option&gt;</v>
+      </c>
+      <c r="G85" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="C86" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="tgk"&gt;Tajik&lt;/option&gt;</v>
+      </c>
+      <c r="G86" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87" t="s">
+        <v>208</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="tam"&gt;Tamil&lt;/option&gt;</v>
+      </c>
+      <c r="G87" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="C88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" t="s">
+        <v>207</v>
+      </c>
+      <c r="E88" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="tat"&gt;Tatar&lt;/option&gt;</v>
+      </c>
+      <c r="G88" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" t="s">
+        <v>207</v>
+      </c>
+      <c r="E89" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="tel"&gt;Telugu&lt;/option&gt;</v>
+      </c>
+      <c r="G89" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" t="s">
+        <v>208</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="tha"&gt;Thai&lt;/option&gt;</v>
+      </c>
+      <c r="G90" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" t="s">
+        <v>208</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="bod"&gt;Tibetan&lt;/option&gt;</v>
+      </c>
+      <c r="G91" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="tir"&gt;Tigrinya&lt;/option&gt;</v>
+      </c>
+      <c r="G92" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="ton"&gt;Tonga (Tonga Islands)&lt;/option&gt;</v>
+      </c>
+      <c r="G93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="C94" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="tur"&gt;Turkish&lt;/option&gt;</v>
+      </c>
+      <c r="G94" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" t="s">
+        <v>208</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="uig"&gt;Uighur&lt;/option&gt;</v>
+      </c>
+      <c r="G95" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="C96" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" t="s">
+        <v>208</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="ukr"&gt;Ukrainian&lt;/option&gt;</v>
+      </c>
+      <c r="G96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="C97" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97" t="s">
+        <v>208</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="urd"&gt;Urdu&lt;/option&gt;</v>
+      </c>
+      <c r="G97" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" t="s">
+        <v>208</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="uzb"&gt;Uzbek&lt;/option&gt;</v>
+      </c>
+      <c r="G98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" t="s">
+        <v>208</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="vie"&gt;Vietnamese&lt;/option&gt;</v>
+      </c>
+      <c r="G99" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" t="s">
+        <v>208</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="cym"&gt;Welsh&lt;/option&gt;</v>
+      </c>
+      <c r="G100" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" t="s">
+        <v>207</v>
+      </c>
+      <c r="E101" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="fry"&gt;Western Frisian&lt;/option&gt;</v>
+      </c>
+      <c r="G101" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="C102" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102" t="s">
+        <v>208</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="yid"&gt;Yiddish&lt;/option&gt;</v>
+      </c>
+      <c r="G102" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>217</v>
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" t="s">
+        <v>207</v>
+      </c>
+      <c r="E103" t="s">
+        <v>208</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="yor"&gt;Yoruba&lt;/option&gt;</v>
+      </c>
+      <c r="G103" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B103">
+    <sortCondition ref="B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PictureShift.com MockUps/tesseract-supported-languages.xlsx
+++ b/PictureShift.com MockUps/tesseract-supported-languages.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin.scaringi\Documents\PictureShift.com\PictureShift.com MockUps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Documents/PictureShift.com/PictureShift.com MockUps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B78445-C12C-467B-AE52-7259944E3811}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B24783B-0325-904D-87DD-E84EE38F1BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03FD4169-636D-4FE1-BC60-AA48B9794488}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{03FD4169-636D-4FE1-BC60-AA48B9794488}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="supported" sheetId="1" r:id="rId1"/>
+    <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="338">
   <si>
     <t>afr</t>
   </si>
@@ -967,6 +970,84 @@
   </si>
   <si>
     <t>&lt;option value="yor"&gt;Yoruba&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>aze_cyrl</t>
+  </si>
+  <si>
+    <t>ceb</t>
+  </si>
+  <si>
+    <t>chi_sim</t>
+  </si>
+  <si>
+    <t>chi_sim_vert</t>
+  </si>
+  <si>
+    <t>chi_tra</t>
+  </si>
+  <si>
+    <t>chi_tra_vert</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>dan_frak</t>
+  </si>
+  <si>
+    <t>deu_frak</t>
+  </si>
+  <si>
+    <t>enm</t>
+  </si>
+  <si>
+    <t>equ</t>
+  </si>
+  <si>
+    <t>fil</t>
+  </si>
+  <si>
+    <t>frk</t>
+  </si>
+  <si>
+    <t>frm</t>
+  </si>
+  <si>
+    <t>grc</t>
+  </si>
+  <si>
+    <t>ita_old</t>
+  </si>
+  <si>
+    <t>jpn_vert</t>
+  </si>
+  <si>
+    <t>kat_old</t>
+  </si>
+  <si>
+    <t>kmr</t>
+  </si>
+  <si>
+    <t>kor_vert</t>
+  </si>
+  <si>
+    <t>osd</t>
+  </si>
+  <si>
+    <t>slk_frak</t>
+  </si>
+  <si>
+    <t>spa_old</t>
+  </si>
+  <si>
+    <t>srp_latn</t>
+  </si>
+  <si>
+    <t>syr</t>
+  </si>
+  <si>
+    <t>uzb_cyrl</t>
   </si>
 </sst>
 </file>
@@ -1320,19 +1401,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C0673A-76D0-4486-8652-B59C008FE811}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G103"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1437,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -1380,7 +1461,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1485,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1509,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1452,7 +1533,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1476,7 +1557,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1581,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1524,7 +1605,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1629,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1653,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1596,7 +1677,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1701,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1725,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1668,7 +1749,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1773,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1716,7 +1797,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1740,7 +1821,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1764,7 +1845,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1869,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1812,7 +1893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1836,7 +1917,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1860,7 +1941,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1884,7 +1965,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1908,7 +1989,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1932,7 +2013,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1956,7 +2037,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1980,7 +2061,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +2085,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2028,7 +2109,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2052,7 +2133,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2076,7 +2157,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2100,7 +2181,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2124,7 +2205,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2148,7 +2229,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2172,7 +2253,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2196,7 +2277,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2220,7 +2301,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2244,7 +2325,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2268,7 +2349,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2292,7 +2373,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2316,7 +2397,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -2340,7 +2421,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2364,7 +2445,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2388,7 +2469,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2412,7 +2493,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2436,7 +2517,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2460,7 +2541,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2484,7 +2565,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2508,7 +2589,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2532,7 +2613,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2556,7 +2637,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2580,7 +2661,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2604,7 +2685,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2628,7 +2709,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2652,7 +2733,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2676,7 +2757,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2700,7 +2781,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2724,7 +2805,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2748,7 +2829,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2772,7 +2853,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -2796,7 +2877,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2820,7 +2901,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2844,7 +2925,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2868,7 +2949,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2892,7 +2973,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2916,7 +2997,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2940,7 +3021,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -2964,7 +3045,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2988,7 +3069,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -3012,7 +3093,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -3036,7 +3117,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -3060,7 +3141,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -3084,7 +3165,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -3108,7 +3189,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -3132,7 +3213,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -3156,7 +3237,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -3180,7 +3261,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3204,7 +3285,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3228,7 +3309,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3252,7 +3333,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -3276,7 +3357,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -3300,7 +3381,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -3324,7 +3405,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -3348,7 +3429,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3372,7 +3453,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3396,7 +3477,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -3420,7 +3501,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -3444,7 +3525,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3468,7 +3549,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -3492,7 +3573,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3516,7 +3597,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -3540,7 +3621,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -3564,7 +3645,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -3588,7 +3669,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -3612,7 +3693,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -3636,7 +3717,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -3660,7 +3741,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -3684,7 +3765,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3708,7 +3789,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -3732,7 +3813,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -3756,7 +3837,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3780,7 +3861,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3811,4 +3892,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF594786-DB20-3D42-A477-0DA5034E6B9A}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>